--- a/Metadata Crosswalks/ASK_UAT_crosswalk.xlsx
+++ b/Metadata Crosswalks/ASK_UAT_crosswalk.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="1342">
   <si>
     <t>ASK / UAT Crosswalk by Katie Frey (https://orcid.org/0000-0001-9891-4465)</t>
   </si>
@@ -4030,10 +4030,19 @@
     <t>http://astrothesaurus.org/uat/2177</t>
   </si>
   <si>
-    <t>https://github.com/astrothesaurus/UAT/releases/tag/v.4.0.1</t>
-  </si>
-  <si>
-    <t>Version 4.0.1</t>
+    <t>Intersteller medium</t>
+  </si>
+  <si>
+    <t>Version 4.2.0</t>
+  </si>
+  <si>
+    <t>Direct imaging</t>
+  </si>
+  <si>
+    <t>http://astrothesaurus.org/uat/387</t>
+  </si>
+  <si>
+    <t>https://github.com/astrothesaurus/UAT/releases/tag/v.4.2.0</t>
   </si>
 </sst>
 </file>
@@ -4584,98 +4593,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4975,7 +4893,7 @@
   <dimension ref="A1:E579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5018,8 +4936,8 @@
       <c r="C4" t="s">
         <v>1338</v>
       </c>
-      <c r="D4" t="s">
-        <v>1337</v>
+      <c r="D4" s="1" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5404,13 +5322,13 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5424,10 +5342,10 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5438,13 +5356,13 @@
         <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5721,13 +5639,13 @@
         <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5741,10 +5659,10 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5758,10 +5676,10 @@
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5772,13 +5690,13 @@
         <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5789,13 +5707,13 @@
         <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5840,13 +5758,13 @@
         <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5860,10 +5778,10 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5874,13 +5792,13 @@
         <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5908,13 +5826,13 @@
         <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5925,13 +5843,13 @@
         <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -6106,13 +6024,13 @@
         <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -6123,13 +6041,13 @@
         <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -6259,13 +6177,13 @@
         <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E79" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -6279,10 +6197,10 @@
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E80" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -6296,10 +6214,10 @@
         <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6313,10 +6231,10 @@
         <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6330,10 +6248,10 @@
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E83" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -6344,13 +6262,13 @@
         <v>203</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E84" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -7035,13 +6953,13 @@
         <v>302</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E125" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -7052,13 +6970,13 @@
         <v>302</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D126" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E126" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -7395,13 +7313,13 @@
         <v>357</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E149" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -7415,10 +7333,10 @@
         <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E150" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -7432,10 +7350,10 @@
         <v>19</v>
       </c>
       <c r="D151" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E151" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -7449,10 +7367,10 @@
         <v>19</v>
       </c>
       <c r="D152" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E152" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -7466,10 +7384,10 @@
         <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E153" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -7483,10 +7401,10 @@
         <v>19</v>
       </c>
       <c r="D154" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -7497,13 +7415,13 @@
         <v>357</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D155" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E155" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -7661,7 +7579,7 @@
         <v>395</v>
       </c>
       <c r="C165" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="D165" t="s">
         <v>396</v>
@@ -8057,13 +7975,13 @@
         <v>457</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E189" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -8077,10 +7995,10 @@
         <v>29</v>
       </c>
       <c r="D190" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E190" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -8091,13 +8009,13 @@
         <v>457</v>
       </c>
       <c r="C191" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D191" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E191" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -8125,13 +8043,13 @@
         <v>466</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E193" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -8145,10 +8063,10 @@
         <v>29</v>
       </c>
       <c r="D194" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E194" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -8162,10 +8080,10 @@
         <v>29</v>
       </c>
       <c r="D195" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E195" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -8176,13 +8094,13 @@
         <v>466</v>
       </c>
       <c r="C196" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D196" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E196" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -8255,13 +8173,13 @@
         <v>482</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E201" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -8272,13 +8190,13 @@
         <v>482</v>
       </c>
       <c r="C202" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D202" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E202" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -8413,13 +8331,13 @@
         <v>505</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E211" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -8433,10 +8351,10 @@
         <v>19</v>
       </c>
       <c r="D212" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E212" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -8450,10 +8368,10 @@
         <v>19</v>
       </c>
       <c r="D213" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="E213" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -8467,10 +8385,10 @@
         <v>19</v>
       </c>
       <c r="D214" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -8484,10 +8402,10 @@
         <v>19</v>
       </c>
       <c r="D215" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E215" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -8501,10 +8419,10 @@
         <v>19</v>
       </c>
       <c r="D216" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E216" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -8518,10 +8436,10 @@
         <v>19</v>
       </c>
       <c r="D217" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E217" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -8535,10 +8453,10 @@
         <v>19</v>
       </c>
       <c r="D218" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E218" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -8552,10 +8470,10 @@
         <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E219" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -8569,10 +8487,10 @@
         <v>19</v>
       </c>
       <c r="D220" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E220" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -8586,10 +8504,10 @@
         <v>19</v>
       </c>
       <c r="D221" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E221" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -8600,13 +8518,13 @@
         <v>505</v>
       </c>
       <c r="C222" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E222" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -8786,13 +8704,13 @@
         <v>555</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D234" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="E234" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -8806,10 +8724,10 @@
         <v>19</v>
       </c>
       <c r="D235" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E235" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -8823,10 +8741,10 @@
         <v>19</v>
       </c>
       <c r="D236" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E236" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -8840,10 +8758,10 @@
         <v>19</v>
       </c>
       <c r="D237" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E237" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -8857,10 +8775,10 @@
         <v>19</v>
       </c>
       <c r="D238" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="E238" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -8871,13 +8789,13 @@
         <v>555</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D239" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E239" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -10255,13 +10173,13 @@
         <v>749</v>
       </c>
       <c r="C325" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D325" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="E325" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -10275,10 +10193,10 @@
         <v>19</v>
       </c>
       <c r="D326" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E326" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -10289,13 +10207,13 @@
         <v>749</v>
       </c>
       <c r="C327" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D327" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
       <c r="E327" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -10306,13 +10224,13 @@
         <v>749</v>
       </c>
       <c r="C328" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D328" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="E328" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -10326,10 +10244,10 @@
         <v>19</v>
       </c>
       <c r="D329" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E329" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -10343,10 +10261,10 @@
         <v>19</v>
       </c>
       <c r="D330" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E330" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -10357,13 +10275,13 @@
         <v>749</v>
       </c>
       <c r="C331" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D331" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="E331" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -10374,13 +10292,13 @@
         <v>749</v>
       </c>
       <c r="C332" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D332" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="E332" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -10391,13 +10309,13 @@
         <v>749</v>
       </c>
       <c r="C333" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D333" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="E333" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -11343,13 +11261,13 @@
         <v>885</v>
       </c>
       <c r="C389" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D389" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E389" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -11363,10 +11281,10 @@
         <v>29</v>
       </c>
       <c r="D390" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E390" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -11377,13 +11295,13 @@
         <v>885</v>
       </c>
       <c r="C391" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D391" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="E391" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -12357,13 +12275,13 @@
         <v>1004</v>
       </c>
       <c r="C449" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D449" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="E449" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -12377,10 +12295,10 @@
         <v>29</v>
       </c>
       <c r="D450" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E450" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -12391,13 +12309,13 @@
         <v>1004</v>
       </c>
       <c r="C451" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D451" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E451" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -12504,13 +12422,13 @@
         <v>1025</v>
       </c>
       <c r="C458" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D458" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E458" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -12521,13 +12439,13 @@
         <v>1025</v>
       </c>
       <c r="C459" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D459" t="s">
-        <v>664</v>
+        <v>1032</v>
       </c>
       <c r="E459" t="s">
-        <v>665</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -12538,13 +12456,13 @@
         <v>1025</v>
       </c>
       <c r="C460" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D460" t="s">
-        <v>549</v>
+        <v>1034</v>
       </c>
       <c r="E460" t="s">
-        <v>550</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -12555,13 +12473,13 @@
         <v>1025</v>
       </c>
       <c r="C461" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D461" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="E461" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -12575,10 +12493,10 @@
         <v>19</v>
       </c>
       <c r="D462" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="E462" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -12589,13 +12507,13 @@
         <v>1025</v>
       </c>
       <c r="C463" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D463" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="E463" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -12606,13 +12524,13 @@
         <v>1025</v>
       </c>
       <c r="C464" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D464" t="s">
-        <v>1036</v>
+        <v>664</v>
       </c>
       <c r="E464" t="s">
-        <v>1037</v>
+        <v>665</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -12623,13 +12541,13 @@
         <v>1025</v>
       </c>
       <c r="C465" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D465" t="s">
-        <v>1038</v>
+        <v>549</v>
       </c>
       <c r="E465" t="s">
-        <v>1039</v>
+        <v>550</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -13059,13 +12977,13 @@
         <v>1100</v>
       </c>
       <c r="C491" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D491" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E491" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -13079,10 +12997,10 @@
         <v>29</v>
       </c>
       <c r="D492" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="E492" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -13093,13 +13011,13 @@
         <v>1100</v>
       </c>
       <c r="C493" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D493" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E493" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -13110,7 +13028,13 @@
         <v>1107</v>
       </c>
       <c r="C494" t="s">
-        <v>126</v>
+        <v>29</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -13681,7 +13605,13 @@
         <v>1194</v>
       </c>
       <c r="C529" t="s">
-        <v>126</v>
+        <v>430</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E529" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -14530,13 +14460,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:E6">
-    <sortState ref="A7:F579">
+    <sortState ref="A7:E579">
       <sortCondition ref="A6"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E346" r:id="rId1"/>
     <hyperlink ref="E375" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
